--- a/reports/resnet18_23_no_MMTM/prediction/7/probability_train_7.xlsx
+++ b/reports/resnet18_23_no_MMTM/prediction/7/probability_train_7.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2538602948188782</v>
+        <v>0.1107564195990562</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7461396455764771</v>
+        <v>0.8892436027526855</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -473,10 +473,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2621058821678162</v>
+        <v>0.1311412751674652</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7378940582275391</v>
+        <v>0.8688586950302124</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -489,10 +489,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4580806791782379</v>
+        <v>0.334647536277771</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5419193506240845</v>
+        <v>0.665352463722229</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7940148115158081</v>
+        <v>0.9482730627059937</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2059852629899979</v>
+        <v>0.05172694474458694</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1378350853919983</v>
+        <v>0.09262871742248535</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8621649146080017</v>
+        <v>0.9073712825775146</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.25252366065979</v>
+        <v>0.1385388970375061</v>
       </c>
       <c r="C7" t="n">
-        <v>0.74747633934021</v>
+        <v>0.8614611029624939</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6988577246665955</v>
+        <v>0.9856859445571899</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3011422455310822</v>
+        <v>0.01431402750313282</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1318420171737671</v>
+        <v>0.0909314900636673</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8681579828262329</v>
+        <v>0.9090685248374939</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1351222842931747</v>
+        <v>0.1191860288381577</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8648777008056641</v>
+        <v>0.8808139562606812</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.280349463224411</v>
+        <v>0.4847750663757324</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7196505069732666</v>
+        <v>0.5152249336242676</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2649081349372864</v>
+        <v>0.1226949766278267</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7350919246673584</v>
+        <v>0.8773050308227539</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6777029037475586</v>
+        <v>0.8471060395240784</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3222970962524414</v>
+        <v>0.1528939306735992</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2063582539558411</v>
+        <v>0.2533989250659943</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7936417460441589</v>
+        <v>0.7466011047363281</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4266424179077148</v>
+        <v>0.4158430695533752</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5733575820922852</v>
+        <v>0.58415687084198</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -681,10 +681,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2796535193920135</v>
+        <v>0.4427136480808258</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7203464508056641</v>
+        <v>0.5572863817214966</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -697,10 +697,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.08829368650913239</v>
+        <v>0.08037495613098145</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9117063283920288</v>
+        <v>0.9196250438690186</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3874284029006958</v>
+        <v>0.2343403398990631</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6125715970993042</v>
+        <v>0.7656596899032593</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4551180005073547</v>
+        <v>0.5337918996810913</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5448819994926453</v>
+        <v>0.4662081003189087</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.5074306130409241</v>
+        <v>0.6045123338699341</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4925694465637207</v>
+        <v>0.3954876065254211</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2781684994697571</v>
+        <v>0.1969854831695557</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7218315005302429</v>
+        <v>0.8030145168304443</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5302116274833679</v>
+        <v>0.7284210920333862</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4697884023189545</v>
+        <v>0.2715789675712585</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -793,10 +793,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.4224879145622253</v>
+        <v>0.6739259958267212</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5775120258331299</v>
+        <v>0.3260740339756012</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.132887676358223</v>
+        <v>0.1866650581359863</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8671122789382935</v>
+        <v>0.8133349418640137</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
@@ -825,10 +825,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.4267162084579468</v>
+        <v>0.3235695064067841</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5732837319374084</v>
+        <v>0.6764305233955383</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1160177439451218</v>
+        <v>0.09601257741451263</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8839823007583618</v>
+        <v>0.9039874672889709</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -857,10 +857,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.2692444622516632</v>
+        <v>0.1780702471733093</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7307555079460144</v>
+        <v>0.8219297528266907</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.2298493087291718</v>
+        <v>0.351944774389267</v>
       </c>
       <c r="C28" t="n">
-        <v>0.7701507210731506</v>
+        <v>0.6480551958084106</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.4899007380008698</v>
+        <v>0.4613310992717743</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5100992321968079</v>
+        <v>0.5386688709259033</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3176402449607849</v>
+        <v>0.2878895401954651</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6823596954345703</v>
+        <v>0.7121104001998901</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
@@ -921,10 +921,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.4262078702449799</v>
+        <v>0.6692615151405334</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5737920999526978</v>
+        <v>0.3307385146617889</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.3739444613456726</v>
+        <v>0.504900336265564</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6260555982589722</v>
+        <v>0.4950997233390808</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.5228967070579529</v>
+        <v>0.6771699786186218</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4771033227443695</v>
+        <v>0.3228300213813782</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -969,10 +969,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.7515810132026672</v>
+        <v>0.9256874322891235</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2484190165996552</v>
+        <v>0.07431259751319885</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.6387345790863037</v>
+        <v>0.8808424472808838</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3612653613090515</v>
+        <v>0.119157537817955</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -1001,10 +1001,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.3658781349658966</v>
+        <v>0.3082211315631866</v>
       </c>
       <c r="C36" t="n">
-        <v>0.6341218948364258</v>
+        <v>0.6917788982391357</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
@@ -1017,10 +1017,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.3266282379627228</v>
+        <v>0.4072601795196533</v>
       </c>
       <c r="C37" t="n">
-        <v>0.6733717918395996</v>
+        <v>0.5927398204803467</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
@@ -1033,10 +1033,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1127718463540077</v>
+        <v>0.1159157902002335</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8872281908988953</v>
+        <v>0.8840842247009277</v>
       </c>
       <c r="D38" t="n">
         <v>1</v>
@@ -1049,10 +1049,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2240120023488998</v>
+        <v>0.2426775246858597</v>
       </c>
       <c r="C39" t="n">
-        <v>0.775987982749939</v>
+        <v>0.7573224306106567</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1684511005878448</v>
+        <v>0.1020463109016418</v>
       </c>
       <c r="C40" t="n">
-        <v>0.8315488696098328</v>
+        <v>0.8979536890983582</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2713432610034943</v>
+        <v>0.4689818620681763</v>
       </c>
       <c r="C41" t="n">
-        <v>0.7286567687988281</v>
+        <v>0.5310181379318237</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.1483208686113358</v>
+        <v>0.1197337955236435</v>
       </c>
       <c r="C42" t="n">
-        <v>0.8516790866851807</v>
+        <v>0.8802661895751953</v>
       </c>
       <c r="D42" t="n">
         <v>1</v>
@@ -1113,10 +1113,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.1555818319320679</v>
+        <v>0.1899881362915039</v>
       </c>
       <c r="C43" t="n">
-        <v>0.8444181680679321</v>
+        <v>0.8100118637084961</v>
       </c>
       <c r="D43" t="n">
         <v>1</v>
@@ -1129,10 +1129,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.3200584352016449</v>
+        <v>0.2424656897783279</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6799415349960327</v>
+        <v>0.7575343251228333</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
@@ -1145,10 +1145,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.8150947690010071</v>
+        <v>0.9748830795288086</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1849052011966705</v>
+        <v>0.02511691860854626</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.1765682846307755</v>
+        <v>0.2112815529108047</v>
       </c>
       <c r="C46" t="n">
-        <v>0.8234317302703857</v>
+        <v>0.7887184619903564</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
@@ -1177,10 +1177,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.1193127483129501</v>
+        <v>0.133977085351944</v>
       </c>
       <c r="C47" t="n">
-        <v>0.8806872367858887</v>
+        <v>0.8660229444503784</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
@@ -1193,10 +1193,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.438349574804306</v>
+        <v>0.3551455736160278</v>
       </c>
       <c r="C48" t="n">
-        <v>0.5616503953933716</v>
+        <v>0.6448544263839722</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.6795351505279541</v>
+        <v>0.9084116220474243</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3204648792743683</v>
+        <v>0.09158836305141449</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -1225,10 +1225,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.6725728511810303</v>
+        <v>0.9191873669624329</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3274272084236145</v>
+        <v>0.08081266283988953</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -1241,10 +1241,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.1709744334220886</v>
+        <v>0.1058922186493874</v>
       </c>
       <c r="C51" t="n">
-        <v>0.8290255665779114</v>
+        <v>0.8941077589988708</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
@@ -1257,10 +1257,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.1036630123853683</v>
+        <v>0.06889615207910538</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8963370323181152</v>
+        <v>0.9311038255691528</v>
       </c>
       <c r="D52" t="n">
         <v>1</v>
@@ -1273,10 +1273,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.08323367685079575</v>
+        <v>0.08367796242237091</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9167662858963013</v>
+        <v>0.9163220524787903</v>
       </c>
       <c r="D53" t="n">
         <v>1</v>
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.3616117537021637</v>
+        <v>0.4412975907325745</v>
       </c>
       <c r="C54" t="n">
-        <v>0.6383882164955139</v>
+        <v>0.5587024688720703</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -1305,10 +1305,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.7728667855262756</v>
+        <v>0.9310172200202942</v>
       </c>
       <c r="C55" t="n">
-        <v>0.2271331697702408</v>
+        <v>0.0689828023314476</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -1321,10 +1321,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1854744553565979</v>
+        <v>0.1891564726829529</v>
       </c>
       <c r="C56" t="n">
-        <v>0.8145255446434021</v>
+        <v>0.8108435869216919</v>
       </c>
       <c r="D56" t="n">
         <v>1</v>
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.4872563481330872</v>
+        <v>0.6641119718551636</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5127436518669128</v>
+        <v>0.3358880281448364</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.189492404460907</v>
+        <v>0.2463168799877167</v>
       </c>
       <c r="C58" t="n">
-        <v>0.8105076551437378</v>
+        <v>0.7536830902099609</v>
       </c>
       <c r="D58" t="n">
         <v>1</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.2198275327682495</v>
+        <v>0.1938149333000183</v>
       </c>
       <c r="C59" t="n">
-        <v>0.7801724672317505</v>
+        <v>0.8061850666999817</v>
       </c>
       <c r="D59" t="n">
         <v>1</v>
@@ -1385,10 +1385,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.8556851148605347</v>
+        <v>0.9455947875976562</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1443148404359818</v>
+        <v>0.05440517514944077</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -1401,10 +1401,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1383491456508636</v>
+        <v>0.06986694782972336</v>
       </c>
       <c r="C61" t="n">
-        <v>0.861650824546814</v>
+        <v>0.9301331043243408</v>
       </c>
       <c r="D61" t="n">
         <v>1</v>
@@ -1417,10 +1417,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.8985887169837952</v>
+        <v>0.9730405807495117</v>
       </c>
       <c r="C62" t="n">
-        <v>0.1014112830162048</v>
+        <v>0.02695946581661701</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.2036454081535339</v>
+        <v>0.1754289269447327</v>
       </c>
       <c r="C63" t="n">
-        <v>0.7963545918464661</v>
+        <v>0.8245710730552673</v>
       </c>
       <c r="D63" t="n">
         <v>1</v>
@@ -1449,10 +1449,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.5251089334487915</v>
+        <v>0.6053774356842041</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4748910069465637</v>
+        <v>0.3946225345134735</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -1465,10 +1465,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.2614287137985229</v>
+        <v>0.2561063468456268</v>
       </c>
       <c r="C65" t="n">
-        <v>0.7385712862014771</v>
+        <v>0.7438936233520508</v>
       </c>
       <c r="D65" t="n">
         <v>1</v>
@@ -1481,10 +1481,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1556489318609238</v>
+        <v>0.178923025727272</v>
       </c>
       <c r="C66" t="n">
-        <v>0.844351053237915</v>
+        <v>0.8210769891738892</v>
       </c>
       <c r="D66" t="n">
         <v>1</v>
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.52350914478302</v>
+        <v>0.7694113850593567</v>
       </c>
       <c r="C67" t="n">
-        <v>0.47649085521698</v>
+        <v>0.2305886149406433</v>
       </c>
       <c r="D67" t="n">
         <v>1</v>
@@ -1513,10 +1513,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.4526431560516357</v>
+        <v>0.5063385963439941</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5473568439483643</v>
+        <v>0.4936614036560059</v>
       </c>
       <c r="D68" t="n">
         <v>1</v>
@@ -1529,10 +1529,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.2178038656711578</v>
+        <v>0.2664371132850647</v>
       </c>
       <c r="C69" t="n">
-        <v>0.7821961641311646</v>
+        <v>0.7335628271102905</v>
       </c>
       <c r="D69" t="n">
         <v>1</v>
@@ -1545,10 +1545,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.09645948559045792</v>
+        <v>0.1613366603851318</v>
       </c>
       <c r="C70" t="n">
-        <v>0.9035404920578003</v>
+        <v>0.8386633396148682</v>
       </c>
       <c r="D70" t="n">
         <v>1</v>
@@ -1561,10 +1561,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1832351088523865</v>
+        <v>0.2766507565975189</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8167648315429688</v>
+        <v>0.7233492732048035</v>
       </c>
       <c r="D71" t="n">
         <v>1</v>
@@ -1577,10 +1577,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1903919279575348</v>
+        <v>0.08605508506298065</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8096081018447876</v>
+        <v>0.9139449596405029</v>
       </c>
       <c r="D72" t="n">
         <v>1</v>
@@ -1593,10 +1593,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.08535739779472351</v>
+        <v>0.08225724101066589</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9146425724029541</v>
+        <v>0.9177427291870117</v>
       </c>
       <c r="D73" t="n">
         <v>1</v>
@@ -1609,10 +1609,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.2178705781698227</v>
+        <v>0.2582538425922394</v>
       </c>
       <c r="C74" t="n">
-        <v>0.7821294069290161</v>
+        <v>0.741746187210083</v>
       </c>
       <c r="D74" t="n">
         <v>1</v>
@@ -1625,10 +1625,10 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.3582353591918945</v>
+        <v>0.2741649746894836</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6417646408081055</v>
+        <v>0.7258349657058716</v>
       </c>
       <c r="D75" t="n">
         <v>1</v>
@@ -1641,10 +1641,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.1244206950068474</v>
+        <v>0.1754528880119324</v>
       </c>
       <c r="C76" t="n">
-        <v>0.875579297542572</v>
+        <v>0.8245471119880676</v>
       </c>
       <c r="D76" t="n">
         <v>1</v>
@@ -1657,10 +1657,10 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.1903948485851288</v>
+        <v>0.1594839692115784</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8096051216125488</v>
+        <v>0.8405160307884216</v>
       </c>
       <c r="D77" t="n">
         <v>1</v>
@@ -1673,10 +1673,10 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.6641180515289307</v>
+        <v>0.6297749280929565</v>
       </c>
       <c r="C78" t="n">
-        <v>0.3358819484710693</v>
+        <v>0.3702250123023987</v>
       </c>
       <c r="D78" t="n">
         <v>1</v>
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.2958154082298279</v>
+        <v>0.4242324233055115</v>
       </c>
       <c r="C79" t="n">
-        <v>0.7041845917701721</v>
+        <v>0.5757675766944885</v>
       </c>
       <c r="D79" t="n">
         <v>1</v>
@@ -1705,10 +1705,10 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.1807239204645157</v>
+        <v>0.2164082229137421</v>
       </c>
       <c r="C80" t="n">
-        <v>0.8192760944366455</v>
+        <v>0.7835918068885803</v>
       </c>
       <c r="D80" t="n">
         <v>1</v>
@@ -1721,10 +1721,10 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.2082794010639191</v>
+        <v>0.4554951786994934</v>
       </c>
       <c r="C81" t="n">
-        <v>0.7917206287384033</v>
+        <v>0.5445048809051514</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
@@ -1737,10 +1737,10 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.656035304069519</v>
+        <v>0.6405472755432129</v>
       </c>
       <c r="C82" t="n">
-        <v>0.3439646661281586</v>
+        <v>0.3594527542591095</v>
       </c>
       <c r="D82" t="n">
         <v>1</v>
@@ -1753,10 +1753,10 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.4782331883907318</v>
+        <v>0.5951802730560303</v>
       </c>
       <c r="C83" t="n">
-        <v>0.5217668414115906</v>
+        <v>0.4048197269439697</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
@@ -1769,10 +1769,10 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.6108055710792542</v>
+        <v>0.7740669846534729</v>
       </c>
       <c r="C84" t="n">
-        <v>0.3891943991184235</v>
+        <v>0.2259330153465271</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -1785,10 +1785,10 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.1076751127839088</v>
+        <v>0.111680269241333</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8923248648643494</v>
+        <v>0.888319730758667</v>
       </c>
       <c r="D85" t="n">
         <v>1</v>
@@ -1801,10 +1801,10 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.1337552815675735</v>
+        <v>0.1359075903892517</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8662447333335876</v>
+        <v>0.8640924692153931</v>
       </c>
       <c r="D86" t="n">
         <v>1</v>
@@ -1817,10 +1817,10 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.5974334478378296</v>
+        <v>0.799013078212738</v>
       </c>
       <c r="C87" t="n">
-        <v>0.4025665521621704</v>
+        <v>0.200986921787262</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -1833,10 +1833,10 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.8896511793136597</v>
+        <v>0.8589550256729126</v>
       </c>
       <c r="C88" t="n">
-        <v>0.110348753631115</v>
+        <v>0.141045019030571</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -1849,10 +1849,10 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.8977348804473877</v>
+        <v>0.9591573476791382</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1022651121020317</v>
+        <v>0.04084266349673271</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -1865,10 +1865,10 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.349323034286499</v>
+        <v>0.1634696125984192</v>
       </c>
       <c r="C90" t="n">
-        <v>0.650676965713501</v>
+        <v>0.8365303874015808</v>
       </c>
       <c r="D90" t="n">
         <v>1</v>
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.6651167869567871</v>
+        <v>0.9115066528320312</v>
       </c>
       <c r="C91" t="n">
-        <v>0.3348832428455353</v>
+        <v>0.08849329501390457</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.7475835084915161</v>
+        <v>0.8565791845321655</v>
       </c>
       <c r="C92" t="n">
-        <v>0.2524164319038391</v>
+        <v>0.1434208899736404</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.3128834366798401</v>
+        <v>0.2496102452278137</v>
       </c>
       <c r="C93" t="n">
-        <v>0.6871165633201599</v>
+        <v>0.7503896951675415</v>
       </c>
       <c r="D93" t="n">
         <v>1</v>
@@ -1929,10 +1929,10 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.1810896247625351</v>
+        <v>0.2274127006530762</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8189103603363037</v>
+        <v>0.7725872993469238</v>
       </c>
       <c r="D94" t="n">
         <v>1</v>
@@ -1945,10 +1945,10 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.3367934226989746</v>
+        <v>0.4892897605895996</v>
       </c>
       <c r="C95" t="n">
-        <v>0.6632065773010254</v>
+        <v>0.5107102394104004</v>
       </c>
       <c r="D95" t="n">
         <v>1</v>
@@ -1961,10 +1961,10 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.2243261933326721</v>
+        <v>0.2317121624946594</v>
       </c>
       <c r="C96" t="n">
-        <v>0.7756738662719727</v>
+        <v>0.7682877779006958</v>
       </c>
       <c r="D96" t="n">
         <v>1</v>
@@ -1977,10 +1977,10 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.351126492023468</v>
+        <v>0.3051900863647461</v>
       </c>
       <c r="C97" t="n">
-        <v>0.648873507976532</v>
+        <v>0.6948099136352539</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -1993,10 +1993,10 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.249541699886322</v>
+        <v>0.5060679316520691</v>
       </c>
       <c r="C98" t="n">
-        <v>0.7504582405090332</v>
+        <v>0.4939320683479309</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -2009,10 +2009,10 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.1863901317119598</v>
+        <v>0.09663259238004684</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8136098384857178</v>
+        <v>0.9033674001693726</v>
       </c>
       <c r="D99" t="n">
         <v>1</v>
@@ -2025,10 +2025,10 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.3071087598800659</v>
+        <v>0.3369161784648895</v>
       </c>
       <c r="C100" t="n">
-        <v>0.6928912401199341</v>
+        <v>0.6630837917327881</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -2041,10 +2041,10 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.5613254904747009</v>
+        <v>0.8577070236206055</v>
       </c>
       <c r="C101" t="n">
-        <v>0.4386745095252991</v>
+        <v>0.1422929763793945</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
@@ -2057,10 +2057,10 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.1319824606180191</v>
+        <v>0.1497321277856827</v>
       </c>
       <c r="C102" t="n">
-        <v>0.8680175542831421</v>
+        <v>0.8502678871154785</v>
       </c>
       <c r="D102" t="n">
         <v>1</v>
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.5858879089355469</v>
+        <v>0.4001331329345703</v>
       </c>
       <c r="C103" t="n">
-        <v>0.4141120612621307</v>
+        <v>0.5998669266700745</v>
       </c>
       <c r="D103" t="n">
         <v>1</v>
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.1040261015295982</v>
+        <v>0.1051253527402878</v>
       </c>
       <c r="C104" t="n">
-        <v>0.8959739208221436</v>
+        <v>0.894874632358551</v>
       </c>
       <c r="D104" t="n">
         <v>1</v>
@@ -2105,10 +2105,10 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.2758914828300476</v>
+        <v>0.2168724685907364</v>
       </c>
       <c r="C105" t="n">
-        <v>0.7241084575653076</v>
+        <v>0.7831275463104248</v>
       </c>
       <c r="D105" t="n">
         <v>1</v>
@@ -2121,10 +2121,10 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.1718468070030212</v>
+        <v>0.2213657796382904</v>
       </c>
       <c r="C106" t="n">
-        <v>0.828153133392334</v>
+        <v>0.778634250164032</v>
       </c>
       <c r="D106" t="n">
         <v>1</v>
@@ -2137,10 +2137,10 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.1839591860771179</v>
+        <v>0.2481385320425034</v>
       </c>
       <c r="C107" t="n">
-        <v>0.8160408735275269</v>
+        <v>0.7518614530563354</v>
       </c>
       <c r="D107" t="n">
         <v>1</v>
@@ -2153,10 +2153,10 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.36760014295578</v>
+        <v>0.485921710729599</v>
       </c>
       <c r="C108" t="n">
-        <v>0.63239985704422</v>
+        <v>0.5140782594680786</v>
       </c>
       <c r="D108" t="n">
         <v>1</v>
@@ -2169,10 +2169,10 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.422615647315979</v>
+        <v>0.1974960118532181</v>
       </c>
       <c r="C109" t="n">
-        <v>0.577384352684021</v>
+        <v>0.8025039434432983</v>
       </c>
       <c r="D109" t="n">
         <v>1</v>
@@ -2185,10 +2185,10 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.09188420325517654</v>
+        <v>0.1183724701404572</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9081157445907593</v>
+        <v>0.8816274404525757</v>
       </c>
       <c r="D110" t="n">
         <v>1</v>
@@ -2201,10 +2201,10 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.3037400543689728</v>
+        <v>0.08586037158966064</v>
       </c>
       <c r="C111" t="n">
-        <v>0.6962599754333496</v>
+        <v>0.9141396284103394</v>
       </c>
       <c r="D111" t="n">
         <v>1</v>
@@ -2217,10 +2217,10 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.1404659599065781</v>
+        <v>0.1179912239313126</v>
       </c>
       <c r="C112" t="n">
-        <v>0.8595340251922607</v>
+        <v>0.8820087909698486</v>
       </c>
       <c r="D112" t="n">
         <v>1</v>
@@ -2233,10 +2233,10 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.050763338804245</v>
+        <v>0.05149556696414948</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9492366313934326</v>
+        <v>0.9485044479370117</v>
       </c>
       <c r="D113" t="n">
         <v>1</v>
@@ -2249,10 +2249,10 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.708038866519928</v>
+        <v>0.8477897644042969</v>
       </c>
       <c r="C114" t="n">
-        <v>0.291961133480072</v>
+        <v>0.1522102653980255</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.453233927488327</v>
+        <v>0.3541232943534851</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5467660427093506</v>
+        <v>0.6458767056465149</v>
       </c>
       <c r="D115" t="n">
         <v>1</v>
@@ -2281,10 +2281,10 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.06591375917196274</v>
+        <v>0.0720096230506897</v>
       </c>
       <c r="C116" t="n">
-        <v>0.9340862631797791</v>
+        <v>0.9279904365539551</v>
       </c>
       <c r="D116" t="n">
         <v>1</v>
@@ -2297,10 +2297,10 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.3833881616592407</v>
+        <v>0.5631274580955505</v>
       </c>
       <c r="C117" t="n">
-        <v>0.6166118383407593</v>
+        <v>0.4368725419044495</v>
       </c>
       <c r="D117" t="n">
         <v>0</v>
@@ -2313,10 +2313,10 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.2178121358156204</v>
+        <v>0.3897488713264465</v>
       </c>
       <c r="C118" t="n">
-        <v>0.7821879386901855</v>
+        <v>0.6102511286735535</v>
       </c>
       <c r="D118" t="n">
         <v>1</v>
@@ -2329,10 +2329,10 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.7590634226799011</v>
+        <v>0.9758422374725342</v>
       </c>
       <c r="C119" t="n">
-        <v>0.2409365773200989</v>
+        <v>0.02415776252746582</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
@@ -2345,10 +2345,10 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.2911859750747681</v>
+        <v>0.1924304366111755</v>
       </c>
       <c r="C120" t="n">
-        <v>0.7088140249252319</v>
+        <v>0.8075695037841797</v>
       </c>
       <c r="D120" t="n">
         <v>1</v>
@@ -2361,10 +2361,10 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.349381148815155</v>
+        <v>0.6849669218063354</v>
       </c>
       <c r="C121" t="n">
-        <v>0.6506187915802002</v>
+        <v>0.3150331079959869</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
@@ -2377,10 +2377,10 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.1487430036067963</v>
+        <v>0.07800370454788208</v>
       </c>
       <c r="C122" t="n">
-        <v>0.8512570261955261</v>
+        <v>0.9219963550567627</v>
       </c>
       <c r="D122" t="n">
         <v>1</v>
@@ -2393,10 +2393,10 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.2857621610164642</v>
+        <v>0.6511070728302002</v>
       </c>
       <c r="C123" t="n">
-        <v>0.7142378687858582</v>
+        <v>0.3488929271697998</v>
       </c>
       <c r="D123" t="n">
         <v>0</v>
@@ -2409,10 +2409,10 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.3831123411655426</v>
+        <v>0.4021118879318237</v>
       </c>
       <c r="C124" t="n">
-        <v>0.616887629032135</v>
+        <v>0.5978881120681763</v>
       </c>
       <c r="D124" t="n">
         <v>1</v>
@@ -2425,10 +2425,10 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.1306443065404892</v>
+        <v>0.3257676064968109</v>
       </c>
       <c r="C125" t="n">
-        <v>0.8693556785583496</v>
+        <v>0.6742324233055115</v>
       </c>
       <c r="D125" t="n">
         <v>1</v>
@@ -2441,10 +2441,10 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.181018054485321</v>
+        <v>0.1821814328432083</v>
       </c>
       <c r="C126" t="n">
-        <v>0.8189818859100342</v>
+        <v>0.8178185820579529</v>
       </c>
       <c r="D126" t="n">
         <v>1</v>
@@ -2457,10 +2457,10 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.3380738496780396</v>
+        <v>0.5131455063819885</v>
       </c>
       <c r="C127" t="n">
-        <v>0.6619261503219604</v>
+        <v>0.4868545532226562</v>
       </c>
       <c r="D127" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.6808862686157227</v>
+        <v>0.9172544479370117</v>
       </c>
       <c r="C128" t="n">
-        <v>0.3191137611865997</v>
+        <v>0.08274558186531067</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
@@ -2489,10 +2489,10 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.4292840659618378</v>
+        <v>0.7342849969863892</v>
       </c>
       <c r="C129" t="n">
-        <v>0.5707159042358398</v>
+        <v>0.2657150626182556</v>
       </c>
       <c r="D129" t="n">
         <v>0</v>
@@ -2505,10 +2505,10 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.15970578789711</v>
+        <v>0.4352794587612152</v>
       </c>
       <c r="C130" t="n">
-        <v>0.8402942419052124</v>
+        <v>0.5647205710411072</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.08500805497169495</v>
+        <v>0.1019988879561424</v>
       </c>
       <c r="C131" t="n">
-        <v>0.9149919152259827</v>
+        <v>0.8980011343955994</v>
       </c>
       <c r="D131" t="n">
         <v>1</v>
@@ -2537,10 +2537,10 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.4051885306835175</v>
+        <v>0.1540500223636627</v>
       </c>
       <c r="C132" t="n">
-        <v>0.5948114395141602</v>
+        <v>0.8459500074386597</v>
       </c>
       <c r="D132" t="n">
         <v>1</v>
@@ -2553,10 +2553,10 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.515625536441803</v>
+        <v>0.6564034223556519</v>
       </c>
       <c r="C133" t="n">
-        <v>0.484374463558197</v>
+        <v>0.3435965776443481</v>
       </c>
       <c r="D133" t="n">
         <v>1</v>
@@ -2569,10 +2569,10 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.1854081153869629</v>
+        <v>0.2244199514389038</v>
       </c>
       <c r="C134" t="n">
-        <v>0.8145918846130371</v>
+        <v>0.7755800485610962</v>
       </c>
       <c r="D134" t="n">
         <v>1</v>
@@ -2585,10 +2585,10 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.2158625721931458</v>
+        <v>0.1606766134500504</v>
       </c>
       <c r="C135" t="n">
-        <v>0.7841374278068542</v>
+        <v>0.8393234014511108</v>
       </c>
       <c r="D135" t="n">
         <v>1</v>
@@ -2601,10 +2601,10 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.9242212772369385</v>
+        <v>0.9677249193191528</v>
       </c>
       <c r="C136" t="n">
-        <v>0.07577870041131973</v>
+        <v>0.03227512538433075</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
@@ -2617,10 +2617,10 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.6070362329483032</v>
+        <v>0.7934218049049377</v>
       </c>
       <c r="C137" t="n">
-        <v>0.3929637968540192</v>
+        <v>0.2065781950950623</v>
       </c>
       <c r="D137" t="n">
         <v>0</v>
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.7417515516281128</v>
+        <v>0.9774287939071655</v>
       </c>
       <c r="C138" t="n">
-        <v>0.2582484483718872</v>
+        <v>0.02257120423018932</v>
       </c>
       <c r="D138" t="n">
         <v>0</v>
@@ -2649,10 +2649,10 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.1490097194910049</v>
+        <v>0.4604132175445557</v>
       </c>
       <c r="C139" t="n">
-        <v>0.8509902954101562</v>
+        <v>0.5395867824554443</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.1146866083145142</v>
+        <v>0.140255331993103</v>
       </c>
       <c r="C140" t="n">
-        <v>0.8853133916854858</v>
+        <v>0.859744668006897</v>
       </c>
       <c r="D140" t="n">
         <v>1</v>
@@ -2681,10 +2681,10 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.2758164405822754</v>
+        <v>0.212495282292366</v>
       </c>
       <c r="C141" t="n">
-        <v>0.7241835594177246</v>
+        <v>0.7875047326087952</v>
       </c>
       <c r="D141" t="n">
         <v>1</v>
@@ -2697,10 +2697,10 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.3874149918556213</v>
+        <v>0.4064606428146362</v>
       </c>
       <c r="C142" t="n">
-        <v>0.6125850081443787</v>
+        <v>0.5935393571853638</v>
       </c>
       <c r="D142" t="n">
         <v>1</v>
@@ -2713,10 +2713,10 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.1819258183240891</v>
+        <v>0.1502844989299774</v>
       </c>
       <c r="C143" t="n">
-        <v>0.8180741667747498</v>
+        <v>0.8497154712677002</v>
       </c>
       <c r="D143" t="n">
         <v>1</v>
@@ -2729,10 +2729,10 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.6190522909164429</v>
+        <v>0.6795336008071899</v>
       </c>
       <c r="C144" t="n">
-        <v>0.3809477388858795</v>
+        <v>0.3204663991928101</v>
       </c>
       <c r="D144" t="n">
         <v>0</v>
@@ -2745,10 +2745,10 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.05061576515436172</v>
+        <v>0.04095184057950974</v>
       </c>
       <c r="C145" t="n">
-        <v>0.9493842124938965</v>
+        <v>0.9590481519699097</v>
       </c>
       <c r="D145" t="n">
         <v>1</v>
@@ -2761,10 +2761,10 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.2676752507686615</v>
+        <v>0.3274980485439301</v>
       </c>
       <c r="C146" t="n">
-        <v>0.7323248386383057</v>
+        <v>0.6725019216537476</v>
       </c>
       <c r="D146" t="n">
         <v>1</v>
@@ -2777,10 +2777,10 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.4972338378429413</v>
+        <v>0.7059345245361328</v>
       </c>
       <c r="C147" t="n">
-        <v>0.5027661323547363</v>
+        <v>0.2940654754638672</v>
       </c>
       <c r="D147" t="n">
         <v>0</v>
@@ -2793,10 +2793,10 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.1319421082735062</v>
+        <v>0.1524830907583237</v>
       </c>
       <c r="C148" t="n">
-        <v>0.8680578470230103</v>
+        <v>0.8475168943405151</v>
       </c>
       <c r="D148" t="n">
         <v>1</v>
@@ -2809,10 +2809,10 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.722481369972229</v>
+        <v>0.9038171172142029</v>
       </c>
       <c r="C149" t="n">
-        <v>0.277518630027771</v>
+        <v>0.09618285298347473</v>
       </c>
       <c r="D149" t="n">
         <v>0</v>
@@ -2825,10 +2825,10 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.4318383634090424</v>
+        <v>0.3790645599365234</v>
       </c>
       <c r="C150" t="n">
-        <v>0.5681616067886353</v>
+        <v>0.6209354400634766</v>
       </c>
       <c r="D150" t="n">
         <v>0</v>
@@ -2841,10 +2841,10 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.4776444137096405</v>
+        <v>0.5685558915138245</v>
       </c>
       <c r="C151" t="n">
-        <v>0.5223555564880371</v>
+        <v>0.4314440786838531</v>
       </c>
       <c r="D151" t="n">
         <v>1</v>
@@ -2857,10 +2857,10 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.329070121049881</v>
+        <v>0.1815739721059799</v>
       </c>
       <c r="C152" t="n">
-        <v>0.6709298491477966</v>
+        <v>0.8184260129928589</v>
       </c>
       <c r="D152" t="n">
         <v>1</v>
@@ -2873,10 +2873,10 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.2375664412975311</v>
+        <v>0.1530321538448334</v>
       </c>
       <c r="C153" t="n">
-        <v>0.7624335289001465</v>
+        <v>0.8469678163528442</v>
       </c>
       <c r="D153" t="n">
         <v>1</v>
@@ -2889,10 +2889,10 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.4732924401760101</v>
+        <v>0.3406687080860138</v>
       </c>
       <c r="C154" t="n">
-        <v>0.5267075896263123</v>
+        <v>0.6593312621116638</v>
       </c>
       <c r="D154" t="n">
         <v>0</v>
@@ -2905,10 +2905,10 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.5621964335441589</v>
+        <v>0.7885123491287231</v>
       </c>
       <c r="C155" t="n">
-        <v>0.4378035068511963</v>
+        <v>0.2114876210689545</v>
       </c>
       <c r="D155" t="n">
         <v>1</v>
@@ -2921,10 +2921,10 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.2997917532920837</v>
+        <v>0.2369932234287262</v>
       </c>
       <c r="C156" t="n">
-        <v>0.700208306312561</v>
+        <v>0.7630068063735962</v>
       </c>
       <c r="D156" t="n">
         <v>1</v>
@@ -2937,10 +2937,10 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.2838360369205475</v>
+        <v>0.3061727285385132</v>
       </c>
       <c r="C157" t="n">
-        <v>0.7161639928817749</v>
+        <v>0.6938272714614868</v>
       </c>
       <c r="D157" t="n">
         <v>1</v>
@@ -2953,10 +2953,10 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.1891702860593796</v>
+        <v>0.1517380774021149</v>
       </c>
       <c r="C158" t="n">
-        <v>0.8108296990394592</v>
+        <v>0.8482619524002075</v>
       </c>
       <c r="D158" t="n">
         <v>1</v>
@@ -2969,10 +2969,10 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.2753940522670746</v>
+        <v>0.5080965757369995</v>
       </c>
       <c r="C159" t="n">
-        <v>0.724605917930603</v>
+        <v>0.4919033944606781</v>
       </c>
       <c r="D159" t="n">
         <v>0</v>
@@ -2985,10 +2985,10 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.1943840086460114</v>
+        <v>0.4515542387962341</v>
       </c>
       <c r="C160" t="n">
-        <v>0.805616021156311</v>
+        <v>0.5484457612037659</v>
       </c>
       <c r="D160" t="n">
         <v>1</v>
@@ -3001,10 +3001,10 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.8525125980377197</v>
+        <v>0.959649920463562</v>
       </c>
       <c r="C161" t="n">
-        <v>0.1474874019622803</v>
+        <v>0.04035010561347008</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
@@ -3017,10 +3017,10 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.1480682790279388</v>
+        <v>0.1580811440944672</v>
       </c>
       <c r="C162" t="n">
-        <v>0.8519316911697388</v>
+        <v>0.8419188857078552</v>
       </c>
       <c r="D162" t="n">
         <v>1</v>
@@ -3033,10 +3033,10 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.6788821816444397</v>
+        <v>0.9289430975914001</v>
       </c>
       <c r="C163" t="n">
-        <v>0.3211177587509155</v>
+        <v>0.07105688005685806</v>
       </c>
       <c r="D163" t="n">
         <v>0</v>
@@ -3049,10 +3049,10 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.5235211253166199</v>
+        <v>0.5472096800804138</v>
       </c>
       <c r="C164" t="n">
-        <v>0.4764789342880249</v>
+        <v>0.4527903199195862</v>
       </c>
       <c r="D164" t="n">
         <v>1</v>
@@ -3065,10 +3065,10 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.2998487949371338</v>
+        <v>0.5134060978889465</v>
       </c>
       <c r="C165" t="n">
-        <v>0.7001512050628662</v>
+        <v>0.4865939021110535</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -3081,10 +3081,10 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.1008620262145996</v>
+        <v>0.1141496077179909</v>
       </c>
       <c r="C166" t="n">
-        <v>0.8991379737854004</v>
+        <v>0.8858504295349121</v>
       </c>
       <c r="D166" t="n">
         <v>1</v>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.1921557188034058</v>
+        <v>0.2151791751384735</v>
       </c>
       <c r="C167" t="n">
-        <v>0.8078442811965942</v>
+        <v>0.7848207950592041</v>
       </c>
       <c r="D167" t="n">
         <v>1</v>
@@ -3113,10 +3113,10 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.122561015188694</v>
+        <v>0.132220059633255</v>
       </c>
       <c r="C168" t="n">
-        <v>0.8774389624595642</v>
+        <v>0.8677799701690674</v>
       </c>
       <c r="D168" t="n">
         <v>1</v>
@@ -3129,10 +3129,10 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.5119845271110535</v>
+        <v>0.7069150805473328</v>
       </c>
       <c r="C169" t="n">
-        <v>0.4880154728889465</v>
+        <v>0.2930848598480225</v>
       </c>
       <c r="D169" t="n">
         <v>0</v>
@@ -3145,10 +3145,10 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.08476536720991135</v>
+        <v>0.1543449461460114</v>
       </c>
       <c r="C170" t="n">
-        <v>0.9152346253395081</v>
+        <v>0.845655083656311</v>
       </c>
       <c r="D170" t="n">
         <v>1</v>
@@ -3161,10 +3161,10 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.2051119059324265</v>
+        <v>0.2283004820346832</v>
       </c>
       <c r="C171" t="n">
-        <v>0.7948880791664124</v>
+        <v>0.7716995477676392</v>
       </c>
       <c r="D171" t="n">
         <v>1</v>
